--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6003C1-A7EB-427A-8460-9CBCB81C5542}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-9000" yWindow="7425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,168 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+  <si>
+    <t>UNF</t>
+  </si>
+  <si>
+    <t>1NF</t>
+  </si>
+  <si>
+    <t>2NF</t>
+  </si>
+  <si>
+    <t>3NF</t>
+  </si>
+  <si>
+    <t>ENTITIES</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>UserPhone</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>ItemQuantity</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemCost</t>
+  </si>
+  <si>
+    <t>ItemAmount</t>
+  </si>
+  <si>
+    <t>ItemAvailable</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>(OrderID</t>
+  </si>
+  <si>
+    <t>OrderDate)</t>
+  </si>
+  <si>
+    <t>(ItemQuantity</t>
+  </si>
+  <si>
+    <t>ItemAvailable)</t>
+  </si>
+  <si>
+    <t>(CategoryID</t>
+  </si>
+  <si>
+    <t>CategoryName)</t>
+  </si>
+  <si>
+    <t>OrderItem</t>
+  </si>
+  <si>
+    <t>*UserID</t>
+  </si>
+  <si>
+    <t>*CategoryID</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>ORDERITEM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +202,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +504,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6003C1-A7EB-427A-8460-9CBCB81C5542}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94BE53-127F-49E3-A156-7C0A16B11384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9000" yWindow="7425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="-8715" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>UNF</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>ORDERITEM</t>
+  </si>
+  <si>
+    <t>TableNumber</t>
+  </si>
+  <si>
+    <t>TableNumbers</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +609,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -619,8 +625,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
@@ -635,37 +641,37 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
@@ -673,54 +679,54 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -728,90 +734,104 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94BE53-127F-49E3-A156-7C0A16B11384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AB3C8-1899-45BE-8662-F14700584328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="-8715" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>UNF</t>
   </si>
@@ -70,9 +70,6 @@
     <t>ItemAmount</t>
   </si>
   <si>
-    <t>ItemAvailable</t>
-  </si>
-  <si>
     <t>CategoryID</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>(ItemQuantity</t>
   </si>
   <si>
-    <t>ItemAvailable)</t>
-  </si>
-  <si>
     <t>(CategoryID</t>
   </si>
   <si>
@@ -125,6 +119,9 @@
   </si>
   <si>
     <t>TableNumbers</t>
+  </si>
+  <si>
+    <t>ItemAmount)</t>
   </si>
 </sst>
 </file>
@@ -511,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,13 +600,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -621,36 +618,36 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -674,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,19 +679,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -708,8 +705,8 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
+      <c r="A14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
@@ -721,7 +718,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -730,18 +727,15 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>12</v>
@@ -756,14 +750,12 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
@@ -773,6 +765,9 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
@@ -782,8 +777,8 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>9</v>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -794,41 +789,32 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
